--- a/Contest/results/Таблицы/сравнение.xlsx
+++ b/Contest/results/Таблицы/сравнение.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leysh\source\repos\dmji\unn-vkr\Contest\results\Таблицы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3EC45-3304-4289-B98E-063EFB9F9191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3389FCF-913E-4B31-AA3C-D9CDF88BB69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="975" windowWidth="17820" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="16290" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнение КЗН" sheetId="1" r:id="rId1"/>
@@ -683,9 +683,6 @@
     <t>EGA</t>
   </si>
   <si>
-    <t>LSA - EGA</t>
-  </si>
-  <si>
     <t>от 10 до 15</t>
   </si>
   <si>
@@ -708,6 +705,9 @@
   </si>
   <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>LSA / EGA</t>
   </si>
 </sst>
 </file>
@@ -962,6 +962,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,47 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,92 +1223,316 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="931">
-          <cell r="A931" t="str">
-            <v>от 17 до 39</v>
-          </cell>
-          <cell r="B931">
-            <v>3.1184420150763263</v>
-          </cell>
-          <cell r="C931">
-            <v>4.3099999999999996</v>
+        <row r="1242">
+          <cell r="B1242" t="str">
+            <v>_0 %</v>
+          </cell>
+          <cell r="C1242" t="str">
+            <v>_0 ms</v>
+          </cell>
+          <cell r="D1242" t="str">
+            <v>_1 %</v>
+          </cell>
+          <cell r="E1242" t="str">
+            <v>_1 ms</v>
+          </cell>
+          <cell r="F1242" t="str">
+            <v>_2 %</v>
+          </cell>
+          <cell r="G1242" t="str">
+            <v>_2 ms</v>
+          </cell>
+          <cell r="H1242" t="str">
+            <v>_3 %</v>
+          </cell>
+          <cell r="I1242" t="str">
+            <v>_3 ms</v>
+          </cell>
+          <cell r="J1242" t="str">
+            <v>_4 %</v>
+          </cell>
+          <cell r="K1242" t="str">
+            <v>_4 ms</v>
           </cell>
         </row>
-        <row r="932">
-          <cell r="A932" t="str">
-            <v>от 42 до 51</v>
-          </cell>
-          <cell r="B932">
-            <v>7.8363871992521945</v>
-          </cell>
-          <cell r="C932">
-            <v>26.95</v>
+        <row r="1243">
+          <cell r="A1243" t="str">
+            <v>от 10 до 15</v>
+          </cell>
+          <cell r="B1243">
+            <v>8.1788285389533719</v>
+          </cell>
+          <cell r="C1243">
+            <v>6.5238095238095237</v>
+          </cell>
+          <cell r="D1243">
+            <v>5.9818350207576199</v>
+          </cell>
+          <cell r="E1243">
+            <v>15.80952380952381</v>
+          </cell>
+          <cell r="F1243">
+            <v>4.1513355520404938</v>
+          </cell>
+          <cell r="G1243">
+            <v>50.238095238095241</v>
+          </cell>
+          <cell r="H1243">
+            <v>3.411647662659631</v>
+          </cell>
+          <cell r="I1243">
+            <v>101.47619047619048</v>
+          </cell>
+          <cell r="J1243">
+            <v>2.7480826119190773</v>
+          </cell>
+          <cell r="K1243">
+            <v>364.95238095238096</v>
           </cell>
         </row>
-        <row r="933">
-          <cell r="A933" t="str">
-            <v>от 52 до 76</v>
-          </cell>
-          <cell r="B933">
-            <v>15.108106756783316</v>
-          </cell>
-          <cell r="C933">
-            <v>96.66</v>
+        <row r="1244">
+          <cell r="A1244" t="str">
+            <v>от 16 до 19</v>
+          </cell>
+          <cell r="B1244">
+            <v>6.9470993482611592</v>
+          </cell>
+          <cell r="C1244">
+            <v>8.8000000000000007</v>
+          </cell>
+          <cell r="D1244">
+            <v>4.6189819393163489</v>
+          </cell>
+          <cell r="E1244">
+            <v>19.8</v>
+          </cell>
+          <cell r="F1244">
+            <v>2.9565994331276357</v>
+          </cell>
+          <cell r="G1244">
+            <v>59.75</v>
+          </cell>
+          <cell r="H1244">
+            <v>2.4347642649481251</v>
+          </cell>
+          <cell r="I1244">
+            <v>122.9</v>
+          </cell>
+          <cell r="J1244">
+            <v>1.9802553060579065</v>
+          </cell>
+          <cell r="K1244">
+            <v>435.45</v>
           </cell>
         </row>
-        <row r="934">
-          <cell r="A934" t="str">
-            <v>от 99 до 105</v>
-          </cell>
-          <cell r="B934">
-            <v>6.6417335461236258</v>
-          </cell>
-          <cell r="C934">
-            <v>582.78</v>
+        <row r="1245">
+          <cell r="A1245" t="str">
+            <v>от 20 до 25</v>
+          </cell>
+          <cell r="B1245">
+            <v>15.585205921152431</v>
+          </cell>
+          <cell r="C1245">
+            <v>10.45</v>
+          </cell>
+          <cell r="D1245">
+            <v>12.574121798561549</v>
+          </cell>
+          <cell r="E1245">
+            <v>24.4</v>
+          </cell>
+          <cell r="F1245">
+            <v>10.009363545206487</v>
+          </cell>
+          <cell r="G1245">
+            <v>69.95</v>
+          </cell>
+          <cell r="H1245">
+            <v>8.7820065319058127</v>
+          </cell>
+          <cell r="I1245">
+            <v>139.15</v>
+          </cell>
+          <cell r="J1245">
+            <v>7.5880673619412109</v>
+          </cell>
+          <cell r="K1245">
+            <v>442.05</v>
           </cell>
         </row>
-        <row r="935">
-          <cell r="A935" t="str">
-            <v>от 107 до 150</v>
-          </cell>
-          <cell r="B935">
-            <v>10.216635871688551</v>
-          </cell>
-          <cell r="C935">
-            <v>2016.06</v>
+        <row r="1246">
+          <cell r="A1246" t="str">
+            <v>от 26 до 30</v>
+          </cell>
+          <cell r="B1246">
+            <v>15.30451402694583</v>
+          </cell>
+          <cell r="C1246">
+            <v>13.555555555555555</v>
+          </cell>
+          <cell r="D1246">
+            <v>12.450196093364237</v>
+          </cell>
+          <cell r="E1246">
+            <v>32.055555555555557</v>
+          </cell>
+          <cell r="F1246">
+            <v>10.480017413523184</v>
+          </cell>
+          <cell r="G1246">
+            <v>86.888888888888886</v>
+          </cell>
+          <cell r="H1246">
+            <v>9.4031851700226898</v>
+          </cell>
+          <cell r="I1246">
+            <v>164.33333333333334</v>
+          </cell>
+          <cell r="J1246">
+            <v>8.024801935296729</v>
+          </cell>
+          <cell r="K1246">
+            <v>502.16666666666669</v>
           </cell>
         </row>
-        <row r="936">
-          <cell r="A936" t="str">
-            <v>от 152 до 200</v>
-          </cell>
-          <cell r="B936">
-            <v>11.307995643279623</v>
-          </cell>
-          <cell r="C936">
-            <v>5678.2222222222226</v>
+        <row r="1247">
+          <cell r="A1247" t="str">
+            <v>от 32 до 49</v>
+          </cell>
+          <cell r="B1247">
+            <v>19.549917452613183</v>
+          </cell>
+          <cell r="C1247">
+            <v>19.350000000000001</v>
+          </cell>
+          <cell r="D1247">
+            <v>16.170910661184564</v>
+          </cell>
+          <cell r="E1247">
+            <v>45.35</v>
+          </cell>
+          <cell r="F1247">
+            <v>13.822970360882895</v>
+          </cell>
+          <cell r="G1247">
+            <v>116.35</v>
+          </cell>
+          <cell r="H1247">
+            <v>12.459489042887309</v>
+          </cell>
+          <cell r="I1247">
+            <v>213.55</v>
+          </cell>
+          <cell r="J1247">
+            <v>11.059197134390859</v>
+          </cell>
+          <cell r="K1247">
+            <v>624.1</v>
           </cell>
         </row>
-        <row r="937">
-          <cell r="A937" t="str">
-            <v>от 225 до 299</v>
-          </cell>
-          <cell r="B937">
-            <v>12.835543841983952</v>
-          </cell>
-          <cell r="C937">
-            <v>27763.614285714284</v>
+        <row r="1248">
+          <cell r="A1248" t="str">
+            <v>от 50 до 81</v>
+          </cell>
+          <cell r="B1248">
+            <v>34.59703817279393</v>
+          </cell>
+          <cell r="C1248">
+            <v>48.523809523809526</v>
+          </cell>
+          <cell r="D1248">
+            <v>31.885653957732636</v>
+          </cell>
+          <cell r="E1248">
+            <v>106.61904761904762</v>
+          </cell>
+          <cell r="F1248">
+            <v>29.26971350589594</v>
+          </cell>
+          <cell r="G1248">
+            <v>248.57142857142858</v>
+          </cell>
+          <cell r="H1248">
+            <v>28.072232995864358</v>
+          </cell>
+          <cell r="I1248">
+            <v>427.76190476190476</v>
+          </cell>
+          <cell r="J1248">
+            <v>26.484336959640537</v>
+          </cell>
+          <cell r="K1248">
+            <v>1040.5714285714287</v>
           </cell>
         </row>
-        <row r="938">
-          <cell r="A938" t="str">
+        <row r="1249">
+          <cell r="A1249" t="str">
+            <v>от 90 до 256</v>
+          </cell>
+          <cell r="B1249">
+            <v>31.454049255491508</v>
+          </cell>
+          <cell r="C1249">
+            <v>145.125</v>
+          </cell>
+          <cell r="D1249">
+            <v>28.837162997383395</v>
+          </cell>
+          <cell r="E1249">
+            <v>304.9375</v>
+          </cell>
+          <cell r="F1249">
+            <v>26.051017106927034</v>
+          </cell>
+          <cell r="G1249">
+            <v>676.75</v>
+          </cell>
+          <cell r="H1249">
+            <v>24.761683262655751</v>
+          </cell>
+          <cell r="I1249">
+            <v>1082.9375</v>
+          </cell>
+          <cell r="J1249">
+            <v>23.079624760335406</v>
+          </cell>
+          <cell r="K1249">
+            <v>2225.875</v>
+          </cell>
+        </row>
+        <row r="1250">
+          <cell r="A1250" t="str">
             <v>Итог</v>
           </cell>
-          <cell r="B938">
-            <v>9.5806921248839423</v>
-          </cell>
-          <cell r="C938">
-            <v>5166.942358276644</v>
+          <cell r="B1250">
+            <v>18.802378959458771</v>
+          </cell>
+          <cell r="C1250">
+            <v>36.046882086167798</v>
+          </cell>
+          <cell r="D1250">
+            <v>16.074123209757193</v>
+          </cell>
+          <cell r="E1250">
+            <v>78.424518140589569</v>
+          </cell>
+          <cell r="F1250">
+            <v>13.82014527394338</v>
+          </cell>
+          <cell r="G1250">
+            <v>186.92834467120181</v>
+          </cell>
+          <cell r="H1250">
+            <v>12.760715561563382</v>
+          </cell>
+          <cell r="I1250">
+            <v>321.72984693877555</v>
+          </cell>
+          <cell r="J1250">
+            <v>11.566338009940248</v>
+          </cell>
+          <cell r="K1250">
+            <v>805.02363945578236</v>
           </cell>
         </row>
       </sheetData>
@@ -1326,67 +1550,91 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="931">
+          <cell r="A931" t="str">
+            <v>от 17 до 39</v>
+          </cell>
           <cell r="B931">
-            <v>2.6239408087616471</v>
+            <v>3.1184420150763263</v>
           </cell>
           <cell r="C931">
-            <v>2.15</v>
+            <v>4.3099999999999996</v>
           </cell>
         </row>
         <row r="932">
+          <cell r="A932" t="str">
+            <v>от 42 до 51</v>
+          </cell>
           <cell r="B932">
-            <v>6.6054281508510151</v>
+            <v>7.8363871992521945</v>
           </cell>
           <cell r="C932">
-            <v>14.15</v>
+            <v>26.95</v>
           </cell>
         </row>
         <row r="933">
+          <cell r="A933" t="str">
+            <v>от 52 до 76</v>
+          </cell>
           <cell r="B933">
-            <v>13.945002734445202</v>
+            <v>15.108106756783316</v>
           </cell>
           <cell r="C933">
-            <v>49.11</v>
+            <v>96.66</v>
           </cell>
         </row>
         <row r="934">
+          <cell r="A934" t="str">
+            <v>от 99 до 105</v>
+          </cell>
           <cell r="B934">
-            <v>5.4206489628735683</v>
+            <v>6.6417335461236258</v>
           </cell>
           <cell r="C934">
-            <v>334.42</v>
+            <v>582.78</v>
           </cell>
         </row>
         <row r="935">
+          <cell r="A935" t="str">
+            <v>от 107 до 150</v>
+          </cell>
           <cell r="B935">
-            <v>7.9775400671738348</v>
+            <v>10.216635871688551</v>
           </cell>
           <cell r="C935">
-            <v>1253.4000000000001</v>
+            <v>2016.06</v>
           </cell>
         </row>
         <row r="936">
+          <cell r="A936" t="str">
+            <v>от 152 до 200</v>
+          </cell>
           <cell r="B936">
-            <v>8.9743298146333785</v>
+            <v>11.307995643279623</v>
           </cell>
           <cell r="C936">
-            <v>2789.3555555555554</v>
+            <v>5678.2222222222226</v>
           </cell>
         </row>
         <row r="937">
+          <cell r="A937" t="str">
+            <v>от 225 до 299</v>
+          </cell>
           <cell r="B937">
-            <v>9.8779825235815508</v>
+            <v>12.835543841983952</v>
           </cell>
           <cell r="C937">
-            <v>13638.128571428571</v>
+            <v>27763.614285714284</v>
           </cell>
         </row>
         <row r="938">
+          <cell r="A938" t="str">
+            <v>Итог</v>
+          </cell>
           <cell r="B938">
-            <v>7.9178390089028854</v>
+            <v>9.5806921248839423</v>
           </cell>
           <cell r="C938">
-            <v>2582.9591609977324</v>
+            <v>5166.942358276644</v>
           </cell>
         </row>
       </sheetData>
@@ -1403,319 +1651,68 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1242">
-          <cell r="A1242" t="str">
-            <v>Avg Error, %</v>
-          </cell>
-          <cell r="B1242" t="str">
-            <v>_0 %</v>
-          </cell>
-          <cell r="C1242" t="str">
-            <v>_0 ms</v>
-          </cell>
-          <cell r="D1242" t="str">
-            <v>_1 %</v>
-          </cell>
-          <cell r="E1242" t="str">
-            <v>_1 ms</v>
-          </cell>
-          <cell r="F1242" t="str">
-            <v>_2 %</v>
-          </cell>
-          <cell r="G1242" t="str">
-            <v>_2 ms</v>
-          </cell>
-          <cell r="H1242" t="str">
-            <v>_3 %</v>
-          </cell>
-          <cell r="I1242" t="str">
-            <v>_3 ms</v>
-          </cell>
-          <cell r="J1242" t="str">
-            <v>_4 %</v>
-          </cell>
-          <cell r="K1242" t="str">
-            <v>_4 ms</v>
+        <row r="931">
+          <cell r="B931">
+            <v>2.6239408087616471</v>
+          </cell>
+          <cell r="C931">
+            <v>2.15</v>
           </cell>
         </row>
-        <row r="1243">
-          <cell r="A1243" t="str">
-            <v>от 10 до 15</v>
-          </cell>
-          <cell r="B1243">
-            <v>8.1788285389533719</v>
-          </cell>
-          <cell r="C1243">
-            <v>6.5238095238095237</v>
-          </cell>
-          <cell r="D1243">
-            <v>5.9818350207576199</v>
-          </cell>
-          <cell r="E1243">
-            <v>15.80952380952381</v>
-          </cell>
-          <cell r="F1243">
-            <v>4.1513355520404938</v>
-          </cell>
-          <cell r="G1243">
-            <v>50.238095238095241</v>
-          </cell>
-          <cell r="H1243">
-            <v>3.411647662659631</v>
-          </cell>
-          <cell r="I1243">
-            <v>101.47619047619048</v>
-          </cell>
-          <cell r="J1243">
-            <v>2.7480826119190773</v>
-          </cell>
-          <cell r="K1243">
-            <v>364.95238095238096</v>
+        <row r="932">
+          <cell r="B932">
+            <v>6.6054281508510151</v>
+          </cell>
+          <cell r="C932">
+            <v>14.15</v>
           </cell>
         </row>
-        <row r="1244">
-          <cell r="A1244" t="str">
-            <v>от 16 до 19</v>
-          </cell>
-          <cell r="B1244">
-            <v>6.9470993482611592</v>
-          </cell>
-          <cell r="C1244">
-            <v>8.8000000000000007</v>
-          </cell>
-          <cell r="D1244">
-            <v>4.6189819393163489</v>
-          </cell>
-          <cell r="E1244">
-            <v>19.8</v>
-          </cell>
-          <cell r="F1244">
-            <v>2.9565994331276357</v>
-          </cell>
-          <cell r="G1244">
-            <v>59.75</v>
-          </cell>
-          <cell r="H1244">
-            <v>2.4347642649481251</v>
-          </cell>
-          <cell r="I1244">
-            <v>122.9</v>
-          </cell>
-          <cell r="J1244">
-            <v>1.9802553060579065</v>
-          </cell>
-          <cell r="K1244">
-            <v>435.45</v>
+        <row r="933">
+          <cell r="B933">
+            <v>13.945002734445202</v>
+          </cell>
+          <cell r="C933">
+            <v>49.11</v>
           </cell>
         </row>
-        <row r="1245">
-          <cell r="A1245" t="str">
-            <v>от 20 до 25</v>
-          </cell>
-          <cell r="B1245">
-            <v>15.585205921152431</v>
-          </cell>
-          <cell r="C1245">
-            <v>10.45</v>
-          </cell>
-          <cell r="D1245">
-            <v>12.574121798561549</v>
-          </cell>
-          <cell r="E1245">
-            <v>24.4</v>
-          </cell>
-          <cell r="F1245">
-            <v>10.009363545206487</v>
-          </cell>
-          <cell r="G1245">
-            <v>69.95</v>
-          </cell>
-          <cell r="H1245">
-            <v>8.7820065319058127</v>
-          </cell>
-          <cell r="I1245">
-            <v>139.15</v>
-          </cell>
-          <cell r="J1245">
-            <v>7.5880673619412109</v>
-          </cell>
-          <cell r="K1245">
-            <v>442.05</v>
+        <row r="934">
+          <cell r="B934">
+            <v>5.4206489628735683</v>
+          </cell>
+          <cell r="C934">
+            <v>334.42</v>
           </cell>
         </row>
-        <row r="1246">
-          <cell r="A1246" t="str">
-            <v>от 26 до 30</v>
-          </cell>
-          <cell r="B1246">
-            <v>15.30451402694583</v>
-          </cell>
-          <cell r="C1246">
-            <v>13.555555555555555</v>
-          </cell>
-          <cell r="D1246">
-            <v>12.450196093364237</v>
-          </cell>
-          <cell r="E1246">
-            <v>32.055555555555557</v>
-          </cell>
-          <cell r="F1246">
-            <v>10.480017413523184</v>
-          </cell>
-          <cell r="G1246">
-            <v>86.888888888888886</v>
-          </cell>
-          <cell r="H1246">
-            <v>9.4031851700226898</v>
-          </cell>
-          <cell r="I1246">
-            <v>164.33333333333334</v>
-          </cell>
-          <cell r="J1246">
-            <v>8.024801935296729</v>
-          </cell>
-          <cell r="K1246">
-            <v>502.16666666666669</v>
+        <row r="935">
+          <cell r="B935">
+            <v>7.9775400671738348</v>
+          </cell>
+          <cell r="C935">
+            <v>1253.4000000000001</v>
           </cell>
         </row>
-        <row r="1247">
-          <cell r="A1247" t="str">
-            <v>от 32 до 49</v>
-          </cell>
-          <cell r="B1247">
-            <v>19.549917452613183</v>
-          </cell>
-          <cell r="C1247">
-            <v>19.350000000000001</v>
-          </cell>
-          <cell r="D1247">
-            <v>16.170910661184564</v>
-          </cell>
-          <cell r="E1247">
-            <v>45.35</v>
-          </cell>
-          <cell r="F1247">
-            <v>13.822970360882895</v>
-          </cell>
-          <cell r="G1247">
-            <v>116.35</v>
-          </cell>
-          <cell r="H1247">
-            <v>12.459489042887309</v>
-          </cell>
-          <cell r="I1247">
-            <v>213.55</v>
-          </cell>
-          <cell r="J1247">
-            <v>11.059197134390859</v>
-          </cell>
-          <cell r="K1247">
-            <v>624.1</v>
+        <row r="936">
+          <cell r="B936">
+            <v>8.9743298146333785</v>
+          </cell>
+          <cell r="C936">
+            <v>2789.3555555555554</v>
           </cell>
         </row>
-        <row r="1248">
-          <cell r="A1248" t="str">
-            <v>от 50 до 81</v>
-          </cell>
-          <cell r="B1248">
-            <v>34.59703817279393</v>
-          </cell>
-          <cell r="C1248">
-            <v>48.523809523809526</v>
-          </cell>
-          <cell r="D1248">
-            <v>31.885653957732636</v>
-          </cell>
-          <cell r="E1248">
-            <v>106.61904761904762</v>
-          </cell>
-          <cell r="F1248">
-            <v>29.26971350589594</v>
-          </cell>
-          <cell r="G1248">
-            <v>248.57142857142858</v>
-          </cell>
-          <cell r="H1248">
-            <v>28.072232995864358</v>
-          </cell>
-          <cell r="I1248">
-            <v>427.76190476190476</v>
-          </cell>
-          <cell r="J1248">
-            <v>26.484336959640537</v>
-          </cell>
-          <cell r="K1248">
-            <v>1040.5714285714287</v>
+        <row r="937">
+          <cell r="B937">
+            <v>9.8779825235815508</v>
+          </cell>
+          <cell r="C937">
+            <v>13638.128571428571</v>
           </cell>
         </row>
-        <row r="1249">
-          <cell r="A1249" t="str">
-            <v>от 90 до 256</v>
-          </cell>
-          <cell r="B1249">
-            <v>31.454049255491508</v>
-          </cell>
-          <cell r="C1249">
-            <v>145.125</v>
-          </cell>
-          <cell r="D1249">
-            <v>28.837162997383395</v>
-          </cell>
-          <cell r="E1249">
-            <v>304.9375</v>
-          </cell>
-          <cell r="F1249">
-            <v>26.051017106927034</v>
-          </cell>
-          <cell r="G1249">
-            <v>676.75</v>
-          </cell>
-          <cell r="H1249">
-            <v>24.761683262655751</v>
-          </cell>
-          <cell r="I1249">
-            <v>1082.9375</v>
-          </cell>
-          <cell r="J1249">
-            <v>23.079624760335406</v>
-          </cell>
-          <cell r="K1249">
-            <v>2225.875</v>
-          </cell>
-        </row>
-        <row r="1250">
-          <cell r="A1250" t="str">
-            <v>Итог</v>
-          </cell>
-          <cell r="B1250">
-            <v>18.802378959458771</v>
-          </cell>
-          <cell r="C1250">
-            <v>36.046882086167798</v>
-          </cell>
-          <cell r="D1250">
-            <v>16.074123209757193</v>
-          </cell>
-          <cell r="E1250">
-            <v>78.424518140589569</v>
-          </cell>
-          <cell r="F1250">
-            <v>13.82014527394338</v>
-          </cell>
-          <cell r="G1250">
-            <v>186.92834467120181</v>
-          </cell>
-          <cell r="H1250">
-            <v>12.760715561563382</v>
-          </cell>
-          <cell r="I1250">
-            <v>321.72984693877555</v>
-          </cell>
-          <cell r="J1250">
-            <v>11.566338009940248</v>
-          </cell>
-          <cell r="K1250">
-            <v>805.02363945578236</v>
+        <row r="938">
+          <cell r="B938">
+            <v>7.9178390089028854</v>
+          </cell>
+          <cell r="C938">
+            <v>2582.9591609977324</v>
           </cell>
         </row>
       </sheetData>
@@ -2316,27 +2313,27 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:H33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2527,430 +2524,430 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f>[5]Results!B1242</f>
+        <f>[3]Results!B1242</f>
         <v>_0 %</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>[5]Results!C1242</f>
+        <f>[3]Results!C1242</f>
         <v>_0 ms</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>[5]Results!D1242</f>
+        <f>[3]Results!D1242</f>
         <v>_1 %</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>[5]Results!E1242</f>
+        <f>[3]Results!E1242</f>
         <v>_1 ms</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>[5]Results!F1242</f>
+        <f>[3]Results!F1242</f>
         <v>_2 %</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f>[5]Results!G1242</f>
+        <f>[3]Results!G1242</f>
         <v>_2 ms</v>
       </c>
       <c r="H13" s="3" t="str">
-        <f>[5]Results!H1242</f>
+        <f>[3]Results!H1242</f>
         <v>_3 %</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>[5]Results!I1242</f>
+        <f>[3]Results!I1242</f>
         <v>_3 ms</v>
       </c>
       <c r="J13" s="3" t="str">
-        <f>[5]Results!J1242</f>
+        <f>[3]Results!J1242</f>
         <v>_4 %</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>[5]Results!K1242</f>
+        <f>[3]Results!K1242</f>
         <v>_4 ms</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
-        <f>[5]Results!A1243</f>
+        <f>[3]Results!A1243</f>
         <v>от 10 до 15</v>
       </c>
-      <c r="B14" s="12">
-        <f>[5]Results!B1243</f>
+      <c r="B14" s="7">
+        <f>[3]Results!B1243</f>
         <v>8.1788285389533719</v>
       </c>
-      <c r="C14" s="12">
-        <f>[5]Results!C1243</f>
+      <c r="C14" s="7">
+        <f>[3]Results!C1243</f>
         <v>6.5238095238095237</v>
       </c>
-      <c r="D14" s="12">
-        <f>[5]Results!D1243</f>
+      <c r="D14" s="7">
+        <f>[3]Results!D1243</f>
         <v>5.9818350207576199</v>
       </c>
-      <c r="E14" s="12">
-        <f>[5]Results!E1243</f>
+      <c r="E14" s="7">
+        <f>[3]Results!E1243</f>
         <v>15.80952380952381</v>
       </c>
-      <c r="F14" s="12">
-        <f>[5]Results!F1243</f>
+      <c r="F14" s="7">
+        <f>[3]Results!F1243</f>
         <v>4.1513355520404938</v>
       </c>
-      <c r="G14" s="12">
-        <f>[5]Results!G1243</f>
+      <c r="G14" s="7">
+        <f>[3]Results!G1243</f>
         <v>50.238095238095241</v>
       </c>
-      <c r="H14" s="12">
-        <f>[5]Results!H1243</f>
+      <c r="H14" s="7">
+        <f>[3]Results!H1243</f>
         <v>3.411647662659631</v>
       </c>
-      <c r="I14" s="12">
-        <f>[5]Results!I1243</f>
+      <c r="I14" s="7">
+        <f>[3]Results!I1243</f>
         <v>101.47619047619048</v>
       </c>
-      <c r="J14" s="12">
-        <f>[5]Results!J1243</f>
+      <c r="J14" s="7">
+        <f>[3]Results!J1243</f>
         <v>2.7480826119190773</v>
       </c>
-      <c r="K14" s="12">
-        <f>[5]Results!K1243</f>
+      <c r="K14" s="7">
+        <f>[3]Results!K1243</f>
         <v>364.95238095238096</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
-        <f>[5]Results!A1244</f>
+        <f>[3]Results!A1244</f>
         <v>от 16 до 19</v>
       </c>
-      <c r="B15" s="12">
-        <f>[5]Results!B1244</f>
+      <c r="B15" s="7">
+        <f>[3]Results!B1244</f>
         <v>6.9470993482611592</v>
       </c>
-      <c r="C15" s="12">
-        <f>[5]Results!C1244</f>
+      <c r="C15" s="7">
+        <f>[3]Results!C1244</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="D15" s="12">
-        <f>[5]Results!D1244</f>
+      <c r="D15" s="7">
+        <f>[3]Results!D1244</f>
         <v>4.6189819393163489</v>
       </c>
-      <c r="E15" s="12">
-        <f>[5]Results!E1244</f>
+      <c r="E15" s="7">
+        <f>[3]Results!E1244</f>
         <v>19.8</v>
       </c>
-      <c r="F15" s="12">
-        <f>[5]Results!F1244</f>
+      <c r="F15" s="7">
+        <f>[3]Results!F1244</f>
         <v>2.9565994331276357</v>
       </c>
-      <c r="G15" s="12">
-        <f>[5]Results!G1244</f>
+      <c r="G15" s="7">
+        <f>[3]Results!G1244</f>
         <v>59.75</v>
       </c>
-      <c r="H15" s="12">
-        <f>[5]Results!H1244</f>
+      <c r="H15" s="7">
+        <f>[3]Results!H1244</f>
         <v>2.4347642649481251</v>
       </c>
-      <c r="I15" s="12">
-        <f>[5]Results!I1244</f>
+      <c r="I15" s="7">
+        <f>[3]Results!I1244</f>
         <v>122.9</v>
       </c>
-      <c r="J15" s="12">
-        <f>[5]Results!J1244</f>
+      <c r="J15" s="7">
+        <f>[3]Results!J1244</f>
         <v>1.9802553060579065</v>
       </c>
-      <c r="K15" s="12">
-        <f>[5]Results!K1244</f>
+      <c r="K15" s="7">
+        <f>[3]Results!K1244</f>
         <v>435.45</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>[5]Results!A1245</f>
+        <f>[3]Results!A1245</f>
         <v>от 20 до 25</v>
       </c>
-      <c r="B16" s="12">
-        <f>[5]Results!B1245</f>
+      <c r="B16" s="7">
+        <f>[3]Results!B1245</f>
         <v>15.585205921152431</v>
       </c>
-      <c r="C16" s="12">
-        <f>[5]Results!C1245</f>
+      <c r="C16" s="7">
+        <f>[3]Results!C1245</f>
         <v>10.45</v>
       </c>
-      <c r="D16" s="12">
-        <f>[5]Results!D1245</f>
+      <c r="D16" s="7">
+        <f>[3]Results!D1245</f>
         <v>12.574121798561549</v>
       </c>
-      <c r="E16" s="12">
-        <f>[5]Results!E1245</f>
+      <c r="E16" s="7">
+        <f>[3]Results!E1245</f>
         <v>24.4</v>
       </c>
-      <c r="F16" s="12">
-        <f>[5]Results!F1245</f>
+      <c r="F16" s="7">
+        <f>[3]Results!F1245</f>
         <v>10.009363545206487</v>
       </c>
-      <c r="G16" s="12">
-        <f>[5]Results!G1245</f>
+      <c r="G16" s="7">
+        <f>[3]Results!G1245</f>
         <v>69.95</v>
       </c>
-      <c r="H16" s="12">
-        <f>[5]Results!H1245</f>
+      <c r="H16" s="7">
+        <f>[3]Results!H1245</f>
         <v>8.7820065319058127</v>
       </c>
-      <c r="I16" s="12">
-        <f>[5]Results!I1245</f>
+      <c r="I16" s="7">
+        <f>[3]Results!I1245</f>
         <v>139.15</v>
       </c>
-      <c r="J16" s="12">
-        <f>[5]Results!J1245</f>
+      <c r="J16" s="7">
+        <f>[3]Results!J1245</f>
         <v>7.5880673619412109</v>
       </c>
-      <c r="K16" s="12">
-        <f>[5]Results!K1245</f>
+      <c r="K16" s="7">
+        <f>[3]Results!K1245</f>
         <v>442.05</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>[5]Results!A1246</f>
+        <f>[3]Results!A1246</f>
         <v>от 26 до 30</v>
       </c>
-      <c r="B17" s="12">
-        <f>[5]Results!B1246</f>
+      <c r="B17" s="7">
+        <f>[3]Results!B1246</f>
         <v>15.30451402694583</v>
       </c>
-      <c r="C17" s="12">
-        <f>[5]Results!C1246</f>
+      <c r="C17" s="7">
+        <f>[3]Results!C1246</f>
         <v>13.555555555555555</v>
       </c>
-      <c r="D17" s="12">
-        <f>[5]Results!D1246</f>
+      <c r="D17" s="7">
+        <f>[3]Results!D1246</f>
         <v>12.450196093364237</v>
       </c>
-      <c r="E17" s="12">
-        <f>[5]Results!E1246</f>
+      <c r="E17" s="7">
+        <f>[3]Results!E1246</f>
         <v>32.055555555555557</v>
       </c>
-      <c r="F17" s="12">
-        <f>[5]Results!F1246</f>
+      <c r="F17" s="7">
+        <f>[3]Results!F1246</f>
         <v>10.480017413523184</v>
       </c>
-      <c r="G17" s="12">
-        <f>[5]Results!G1246</f>
+      <c r="G17" s="7">
+        <f>[3]Results!G1246</f>
         <v>86.888888888888886</v>
       </c>
-      <c r="H17" s="12">
-        <f>[5]Results!H1246</f>
+      <c r="H17" s="7">
+        <f>[3]Results!H1246</f>
         <v>9.4031851700226898</v>
       </c>
-      <c r="I17" s="12">
-        <f>[5]Results!I1246</f>
+      <c r="I17" s="7">
+        <f>[3]Results!I1246</f>
         <v>164.33333333333334</v>
       </c>
-      <c r="J17" s="12">
-        <f>[5]Results!J1246</f>
+      <c r="J17" s="7">
+        <f>[3]Results!J1246</f>
         <v>8.024801935296729</v>
       </c>
-      <c r="K17" s="12">
-        <f>[5]Results!K1246</f>
+      <c r="K17" s="7">
+        <f>[3]Results!K1246</f>
         <v>502.16666666666669</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>[5]Results!A1247</f>
+        <f>[3]Results!A1247</f>
         <v>от 32 до 49</v>
       </c>
-      <c r="B18" s="12">
-        <f>[5]Results!B1247</f>
+      <c r="B18" s="7">
+        <f>[3]Results!B1247</f>
         <v>19.549917452613183</v>
       </c>
-      <c r="C18" s="12">
-        <f>[5]Results!C1247</f>
+      <c r="C18" s="7">
+        <f>[3]Results!C1247</f>
         <v>19.350000000000001</v>
       </c>
-      <c r="D18" s="12">
-        <f>[5]Results!D1247</f>
+      <c r="D18" s="7">
+        <f>[3]Results!D1247</f>
         <v>16.170910661184564</v>
       </c>
-      <c r="E18" s="12">
-        <f>[5]Results!E1247</f>
+      <c r="E18" s="7">
+        <f>[3]Results!E1247</f>
         <v>45.35</v>
       </c>
-      <c r="F18" s="12">
-        <f>[5]Results!F1247</f>
+      <c r="F18" s="7">
+        <f>[3]Results!F1247</f>
         <v>13.822970360882895</v>
       </c>
-      <c r="G18" s="12">
-        <f>[5]Results!G1247</f>
+      <c r="G18" s="7">
+        <f>[3]Results!G1247</f>
         <v>116.35</v>
       </c>
-      <c r="H18" s="12">
-        <f>[5]Results!H1247</f>
+      <c r="H18" s="7">
+        <f>[3]Results!H1247</f>
         <v>12.459489042887309</v>
       </c>
-      <c r="I18" s="12">
-        <f>[5]Results!I1247</f>
+      <c r="I18" s="7">
+        <f>[3]Results!I1247</f>
         <v>213.55</v>
       </c>
-      <c r="J18" s="12">
-        <f>[5]Results!J1247</f>
+      <c r="J18" s="7">
+        <f>[3]Results!J1247</f>
         <v>11.059197134390859</v>
       </c>
-      <c r="K18" s="12">
-        <f>[5]Results!K1247</f>
+      <c r="K18" s="7">
+        <f>[3]Results!K1247</f>
         <v>624.1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>[5]Results!A1248</f>
+        <f>[3]Results!A1248</f>
         <v>от 50 до 81</v>
       </c>
-      <c r="B19" s="12">
-        <f>[5]Results!B1248</f>
+      <c r="B19" s="7">
+        <f>[3]Results!B1248</f>
         <v>34.59703817279393</v>
       </c>
-      <c r="C19" s="12">
-        <f>[5]Results!C1248</f>
+      <c r="C19" s="7">
+        <f>[3]Results!C1248</f>
         <v>48.523809523809526</v>
       </c>
-      <c r="D19" s="12">
-        <f>[5]Results!D1248</f>
+      <c r="D19" s="7">
+        <f>[3]Results!D1248</f>
         <v>31.885653957732636</v>
       </c>
-      <c r="E19" s="12">
-        <f>[5]Results!E1248</f>
+      <c r="E19" s="7">
+        <f>[3]Results!E1248</f>
         <v>106.61904761904762</v>
       </c>
-      <c r="F19" s="12">
-        <f>[5]Results!F1248</f>
+      <c r="F19" s="7">
+        <f>[3]Results!F1248</f>
         <v>29.26971350589594</v>
       </c>
-      <c r="G19" s="12">
-        <f>[5]Results!G1248</f>
+      <c r="G19" s="7">
+        <f>[3]Results!G1248</f>
         <v>248.57142857142858</v>
       </c>
-      <c r="H19" s="12">
-        <f>[5]Results!H1248</f>
+      <c r="H19" s="7">
+        <f>[3]Results!H1248</f>
         <v>28.072232995864358</v>
       </c>
-      <c r="I19" s="12">
-        <f>[5]Results!I1248</f>
+      <c r="I19" s="7">
+        <f>[3]Results!I1248</f>
         <v>427.76190476190476</v>
       </c>
-      <c r="J19" s="12">
-        <f>[5]Results!J1248</f>
+      <c r="J19" s="7">
+        <f>[3]Results!J1248</f>
         <v>26.484336959640537</v>
       </c>
-      <c r="K19" s="12">
-        <f>[5]Results!K1248</f>
+      <c r="K19" s="7">
+        <f>[3]Results!K1248</f>
         <v>1040.5714285714287</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>[5]Results!A1249</f>
+        <f>[3]Results!A1249</f>
         <v>от 90 до 256</v>
       </c>
-      <c r="B20" s="12">
-        <f>[5]Results!B1249</f>
+      <c r="B20" s="7">
+        <f>[3]Results!B1249</f>
         <v>31.454049255491508</v>
       </c>
-      <c r="C20" s="12">
-        <f>[5]Results!C1249</f>
+      <c r="C20" s="7">
+        <f>[3]Results!C1249</f>
         <v>145.125</v>
       </c>
-      <c r="D20" s="12">
-        <f>[5]Results!D1249</f>
+      <c r="D20" s="7">
+        <f>[3]Results!D1249</f>
         <v>28.837162997383395</v>
       </c>
-      <c r="E20" s="12">
-        <f>[5]Results!E1249</f>
+      <c r="E20" s="7">
+        <f>[3]Results!E1249</f>
         <v>304.9375</v>
       </c>
-      <c r="F20" s="12">
-        <f>[5]Results!F1249</f>
+      <c r="F20" s="7">
+        <f>[3]Results!F1249</f>
         <v>26.051017106927034</v>
       </c>
-      <c r="G20" s="12">
-        <f>[5]Results!G1249</f>
+      <c r="G20" s="7">
+        <f>[3]Results!G1249</f>
         <v>676.75</v>
       </c>
-      <c r="H20" s="12">
-        <f>[5]Results!H1249</f>
+      <c r="H20" s="7">
+        <f>[3]Results!H1249</f>
         <v>24.761683262655751</v>
       </c>
-      <c r="I20" s="12">
-        <f>[5]Results!I1249</f>
+      <c r="I20" s="7">
+        <f>[3]Results!I1249</f>
         <v>1082.9375</v>
       </c>
-      <c r="J20" s="12">
-        <f>[5]Results!J1249</f>
+      <c r="J20" s="7">
+        <f>[3]Results!J1249</f>
         <v>23.079624760335406</v>
       </c>
-      <c r="K20" s="12">
-        <f>[5]Results!K1249</f>
+      <c r="K20" s="7">
+        <f>[3]Results!K1249</f>
         <v>2225.875</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>[5]Results!A1250</f>
+        <f>[3]Results!A1250</f>
         <v>Итог</v>
       </c>
-      <c r="B21" s="12">
-        <f>[5]Results!B1250</f>
+      <c r="B21" s="7">
+        <f>[3]Results!B1250</f>
         <v>18.802378959458771</v>
       </c>
-      <c r="C21" s="12">
-        <f>[5]Results!C1250</f>
+      <c r="C21" s="7">
+        <f>[3]Results!C1250</f>
         <v>36.046882086167798</v>
       </c>
-      <c r="D21" s="12">
-        <f>[5]Results!D1250</f>
+      <c r="D21" s="7">
+        <f>[3]Results!D1250</f>
         <v>16.074123209757193</v>
       </c>
-      <c r="E21" s="12">
-        <f>[5]Results!E1250</f>
+      <c r="E21" s="7">
+        <f>[3]Results!E1250</f>
         <v>78.424518140589569</v>
       </c>
-      <c r="F21" s="12">
-        <f>[5]Results!F1250</f>
+      <c r="F21" s="7">
+        <f>[3]Results!F1250</f>
         <v>13.82014527394338</v>
       </c>
-      <c r="G21" s="12">
-        <f>[5]Results!G1250</f>
+      <c r="G21" s="7">
+        <f>[3]Results!G1250</f>
         <v>186.92834467120181</v>
       </c>
-      <c r="H21" s="12">
-        <f>[5]Results!H1250</f>
+      <c r="H21" s="7">
+        <f>[3]Results!H1250</f>
         <v>12.760715561563382</v>
       </c>
-      <c r="I21" s="12">
-        <f>[5]Results!I1250</f>
+      <c r="I21" s="7">
+        <f>[3]Results!I1250</f>
         <v>321.72984693877555</v>
       </c>
-      <c r="J21" s="12">
-        <f>[5]Results!J1250</f>
+      <c r="J21" s="7">
+        <f>[3]Results!J1250</f>
         <v>11.566338009940248</v>
       </c>
-      <c r="K21" s="12">
-        <f>[5]Results!K1250</f>
+      <c r="K21" s="7">
+        <f>[3]Results!K1250</f>
         <v>805.02363945578236</v>
       </c>
     </row>
@@ -2960,311 +2957,311 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="B26" s="11">
         <f>AVERAGE(B3,D3)</f>
         <v>6.4163581145561288</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="11">
         <f>AVERAGE(H14,J14)</f>
         <v>3.079865137289354</v>
       </c>
-      <c r="D26" s="23">
-        <f>B26-C26</f>
-        <v>3.3364929772667749</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="11">
+        <f>B26/C26</f>
+        <v>2.0833243757560385</v>
+      </c>
+      <c r="E26" s="11">
         <f>AVERAGE(C3,E3)</f>
         <v>0.10952380952380952</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="11">
         <f>AVERAGE(I14,K14)</f>
         <v>233.21428571428572</v>
       </c>
-      <c r="G26" s="23">
-        <f>E26-F26</f>
-        <v>-233.10476190476192</v>
-      </c>
-      <c r="H26" s="24">
+      <c r="G26" s="11">
+        <f>E26/F26</f>
+        <v>4.6962736089841756E-4</v>
+      </c>
+      <c r="H26" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="23">
+      <c r="A27" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="11">
         <f t="shared" ref="B27:B32" si="0">AVERAGE(B4,D4)</f>
         <v>3.9160475251454772</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="11">
         <f t="shared" ref="C27:C32" si="1">AVERAGE(H15,J15)</f>
         <v>2.2075097855030159</v>
       </c>
-      <c r="D27" s="23">
-        <f t="shared" ref="D27:D33" si="2">B27-C27</f>
-        <v>1.7085377396424613</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="11">
+        <f t="shared" ref="D27:D33" si="2">B27/C27</f>
+        <v>1.7739661001109193</v>
+      </c>
+      <c r="E27" s="11">
         <f t="shared" ref="E27:E32" si="3">AVERAGE(C4,E4)</f>
         <v>0.51249999999999996</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="11">
         <f t="shared" ref="F27:F32" si="4">AVERAGE(I15,K15)</f>
         <v>279.17500000000001</v>
       </c>
-      <c r="G27" s="23">
-        <f t="shared" ref="G27:G33" si="5">E27-F27</f>
-        <v>-278.66250000000002</v>
-      </c>
-      <c r="H27" s="13">
+      <c r="G27" s="11">
+        <f t="shared" ref="G27:G32" si="5">E27/F27</f>
+        <v>1.8357660965344317E-3</v>
+      </c>
+      <c r="H27" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="23">
+      <c r="A28" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="11">
         <f t="shared" si="0"/>
         <v>8.3146463879062402</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="11">
         <f t="shared" si="1"/>
         <v>8.1850369469235122</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="11">
         <f t="shared" si="2"/>
-        <v>0.12960944098272797</v>
-      </c>
-      <c r="E28" s="23">
+        <v>1.0158349243654232</v>
+      </c>
+      <c r="E28" s="11">
         <f t="shared" si="3"/>
         <v>2.8149999999999999</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="11">
         <f t="shared" si="4"/>
         <v>290.60000000000002</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
-        <v>-287.78500000000003</v>
-      </c>
-      <c r="H28" s="13">
+        <v>9.6868547832071571E-3</v>
+      </c>
+      <c r="H28" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="23">
+      <c r="A29" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="11">
         <f t="shared" si="0"/>
         <v>7.268278267849861</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="11">
         <f t="shared" si="1"/>
         <v>8.7139935526597085</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="11">
         <f t="shared" si="2"/>
-        <v>-1.4457152848098476</v>
-      </c>
-      <c r="E29" s="23">
+        <v>0.83409268367331046</v>
+      </c>
+      <c r="E29" s="11">
         <f t="shared" si="3"/>
         <v>9.3083333333333336</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="11">
         <f t="shared" si="4"/>
         <v>333.25</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="11">
         <f t="shared" si="5"/>
-        <v>-323.94166666666666</v>
-      </c>
-      <c r="H29" s="13">
+        <v>2.7931982995748939E-2</v>
+      </c>
+      <c r="H29" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B30" s="23">
+      <c r="A30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="11">
         <f t="shared" si="0"/>
         <v>10.555394505414544</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="11">
         <f t="shared" si="1"/>
         <v>11.759343088639085</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="11">
         <f t="shared" si="2"/>
-        <v>-1.2039485832245411</v>
-      </c>
-      <c r="E30" s="23">
+        <v>0.89761770073808822</v>
+      </c>
+      <c r="E30" s="11">
         <f t="shared" si="3"/>
         <v>43.508000000000003</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="11">
         <f t="shared" si="4"/>
         <v>418.82500000000005</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="11">
         <f t="shared" si="5"/>
-        <v>-375.31700000000006</v>
-      </c>
-      <c r="H30" s="13">
+        <v>0.10388109592311824</v>
+      </c>
+      <c r="H30" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="23">
+      <c r="A31" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="11">
         <f t="shared" si="0"/>
         <v>19.88637124653512</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="11">
         <f t="shared" si="1"/>
         <v>27.278284977752449</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="11">
         <f t="shared" si="2"/>
-        <v>-7.3919137312173291</v>
-      </c>
-      <c r="E31" s="23">
+        <v>0.72901838450452416</v>
+      </c>
+      <c r="E31" s="11">
         <f t="shared" si="3"/>
         <v>495.53684210526313</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="11">
         <f t="shared" si="4"/>
         <v>734.16666666666674</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="11">
         <f t="shared" si="5"/>
-        <v>-238.62982456140361</v>
-      </c>
-      <c r="H31" s="13">
+        <v>0.67496505167572729</v>
+      </c>
+      <c r="H31" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="23">
+      <c r="A32" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="11">
         <f t="shared" si="0"/>
         <v>5.5447884236611502</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="11">
         <f t="shared" si="1"/>
         <v>23.920654011495579</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="11">
         <f t="shared" si="2"/>
-        <v>-18.375865587834429</v>
-      </c>
-      <c r="E32" s="23">
+        <v>0.23179919834116927</v>
+      </c>
+      <c r="E32" s="11">
         <f t="shared" si="3"/>
         <v>7453.0961538461543</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="11">
         <f t="shared" si="4"/>
         <v>1654.40625</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="11">
         <f t="shared" si="5"/>
-        <v>5798.6899038461543</v>
-      </c>
-      <c r="H32" s="13">
+        <v>4.5049975807611666</v>
+      </c>
+      <c r="H32" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="23">
-        <f>AVERAGE(B26:B32)</f>
-        <v>8.8431263530097883</v>
-      </c>
-      <c r="C33" s="23">
-        <f>AVERAGE(C26:C32)</f>
-        <v>12.163526785751815</v>
-      </c>
-      <c r="D33" s="23">
-        <f t="shared" si="2"/>
-        <v>-3.3204004327420265</v>
-      </c>
-      <c r="E33" s="23">
-        <f>AVERAGE(E26:E32)</f>
-        <v>1143.5551932991821</v>
-      </c>
-      <c r="F33" s="23">
-        <f>AVERAGE(F26:F32)</f>
-        <v>563.37674319727898</v>
-      </c>
-      <c r="G33" s="23">
-        <f t="shared" si="5"/>
-        <v>580.17845010190308</v>
-      </c>
-      <c r="H33" s="13">
+      <c r="A33" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="11">
+        <f>(B26*H26+B27*H27+B28*H28+B29*H29+B30*H30+B31*H31+B32*H32)/H33</f>
+        <v>8.9999600979054151</v>
+      </c>
+      <c r="C33" s="11">
+        <f>(C26*H26+C27*H27+C28*H28+C29*H29+C30*H30+C31*H31+C32*H32)/H33</f>
+        <v>11.416319708986748</v>
+      </c>
+      <c r="D33" s="11">
+        <f>(D26*H26+D27*H27+D28*H28+D29*H29+D30*H30+D31*H31+D32*H32)/H33</f>
+        <v>1.1313579565367398</v>
+      </c>
+      <c r="E33" s="11">
+        <f>(E26*H26+E27*H27+E28*H28+E29*H29+E30*H30+E31*H31+E32*H32)/H33</f>
+        <v>791.39375000000007</v>
+      </c>
+      <c r="F33" s="11">
+        <f>(F26*H26+F27*H27+F28*H28+F29*H29+F30*H30+F31*H31+F32*H32)/H33</f>
+        <v>501.60715379901967</v>
+      </c>
+      <c r="G33" s="11">
+        <f>(G26*H26+G27*H27+G28*H28+G29*H29+G30*H30+G31*H31+G32*H32)/H33</f>
+        <v>0.54948104570521417</v>
+      </c>
+      <c r="H33" s="8">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3274,27 +3271,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEDDA55-180D-4E66-A65B-197473BECEB7}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3310,194 +3307,194 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f>[3]Results!A931</f>
+        <f>[4]Results!A931</f>
         <v>от 17 до 39</v>
       </c>
       <c r="B3" s="2">
-        <f>[3]Results!B931</f>
+        <f>[4]Results!B931</f>
         <v>3.1184420150763263</v>
       </c>
       <c r="C3" s="2">
-        <f>[3]Results!C931</f>
+        <f>[4]Results!C931</f>
         <v>4.3099999999999996</v>
       </c>
       <c r="D3" s="2">
-        <f>[4]Results!B931</f>
+        <f>[5]Results!B931</f>
         <v>2.6239408087616471</v>
       </c>
       <c r="E3" s="2">
-        <f>[4]Results!C931</f>
+        <f>[5]Results!C931</f>
         <v>2.15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>[3]Results!A932</f>
+        <f>[4]Results!A932</f>
         <v>от 42 до 51</v>
       </c>
       <c r="B4" s="2">
-        <f>[3]Results!B932</f>
+        <f>[4]Results!B932</f>
         <v>7.8363871992521945</v>
       </c>
       <c r="C4" s="2">
-        <f>[3]Results!C932</f>
+        <f>[4]Results!C932</f>
         <v>26.95</v>
       </c>
       <c r="D4" s="2">
-        <f>[4]Results!B932</f>
+        <f>[5]Results!B932</f>
         <v>6.6054281508510151</v>
       </c>
       <c r="E4" s="2">
-        <f>[4]Results!C932</f>
+        <f>[5]Results!C932</f>
         <v>14.15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>[3]Results!A933</f>
+        <f>[4]Results!A933</f>
         <v>от 52 до 76</v>
       </c>
       <c r="B5" s="2">
-        <f>[3]Results!B933</f>
+        <f>[4]Results!B933</f>
         <v>15.108106756783316</v>
       </c>
       <c r="C5" s="2">
-        <f>[3]Results!C933</f>
+        <f>[4]Results!C933</f>
         <v>96.66</v>
       </c>
       <c r="D5" s="2">
-        <f>[4]Results!B933</f>
+        <f>[5]Results!B933</f>
         <v>13.945002734445202</v>
       </c>
       <c r="E5" s="2">
-        <f>[4]Results!C933</f>
+        <f>[5]Results!C933</f>
         <v>49.11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>[3]Results!A934</f>
+        <f>[4]Results!A934</f>
         <v>от 99 до 105</v>
       </c>
       <c r="B6" s="2">
-        <f>[3]Results!B934</f>
+        <f>[4]Results!B934</f>
         <v>6.6417335461236258</v>
       </c>
       <c r="C6" s="2">
-        <f>[3]Results!C934</f>
+        <f>[4]Results!C934</f>
         <v>582.78</v>
       </c>
       <c r="D6" s="2">
-        <f>[4]Results!B934</f>
+        <f>[5]Results!B934</f>
         <v>5.4206489628735683</v>
       </c>
       <c r="E6" s="2">
-        <f>[4]Results!C934</f>
+        <f>[5]Results!C934</f>
         <v>334.42</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>[3]Results!A935</f>
+        <f>[4]Results!A935</f>
         <v>от 107 до 150</v>
       </c>
       <c r="B7" s="2">
-        <f>[3]Results!B935</f>
+        <f>[4]Results!B935</f>
         <v>10.216635871688551</v>
       </c>
       <c r="C7" s="2">
-        <f>[3]Results!C935</f>
+        <f>[4]Results!C935</f>
         <v>2016.06</v>
       </c>
       <c r="D7" s="2">
-        <f>[4]Results!B935</f>
+        <f>[5]Results!B935</f>
         <v>7.9775400671738348</v>
       </c>
       <c r="E7" s="2">
-        <f>[4]Results!C935</f>
+        <f>[5]Results!C935</f>
         <v>1253.4000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>[3]Results!A936</f>
+        <f>[4]Results!A936</f>
         <v>от 152 до 200</v>
       </c>
       <c r="B8" s="2">
-        <f>[3]Results!B936</f>
+        <f>[4]Results!B936</f>
         <v>11.307995643279623</v>
       </c>
       <c r="C8" s="2">
-        <f>[3]Results!C936</f>
+        <f>[4]Results!C936</f>
         <v>5678.2222222222226</v>
       </c>
       <c r="D8" s="2">
-        <f>[4]Results!B936</f>
+        <f>[5]Results!B936</f>
         <v>8.9743298146333785</v>
       </c>
       <c r="E8" s="2">
-        <f>[4]Results!C936</f>
+        <f>[5]Results!C936</f>
         <v>2789.3555555555554</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>[3]Results!A937</f>
+        <f>[4]Results!A937</f>
         <v>от 225 до 299</v>
       </c>
       <c r="B9" s="2">
-        <f>[3]Results!B937</f>
+        <f>[4]Results!B937</f>
         <v>12.835543841983952</v>
       </c>
       <c r="C9" s="2">
-        <f>[3]Results!C937</f>
+        <f>[4]Results!C937</f>
         <v>27763.614285714284</v>
       </c>
       <c r="D9" s="2">
-        <f>[4]Results!B937</f>
+        <f>[5]Results!B937</f>
         <v>9.8779825235815508</v>
       </c>
       <c r="E9" s="2">
-        <f>[4]Results!C937</f>
+        <f>[5]Results!C937</f>
         <v>13638.128571428571</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>[3]Results!A938</f>
+        <f>[4]Results!A938</f>
         <v>Итог</v>
       </c>
       <c r="B10" s="2">
-        <f>[3]Results!B938</f>
+        <f>[4]Results!B938</f>
         <v>9.5806921248839423</v>
       </c>
       <c r="C10" s="2">
-        <f>[3]Results!C938</f>
+        <f>[4]Results!C938</f>
         <v>5166.942358276644</v>
       </c>
       <c r="D10" s="2">
-        <f>[4]Results!B938</f>
+        <f>[5]Results!B938</f>
         <v>7.9178390089028854</v>
       </c>
       <c r="E10" s="2">
-        <f>[4]Results!C938</f>
+        <f>[5]Results!C938</f>
         <v>2582.9591609977324</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3545,667 +3542,667 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="str">
+      <c r="A14" s="7" t="str">
         <f>[6]Results!A613</f>
         <v>от 17 до 39</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="7">
         <f>[6]Results!B613</f>
         <v>8.5142223312088383</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <f>[6]Results!C613</f>
         <v>8</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="7">
         <f>[6]Results!D613</f>
         <v>6.919628531160706</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <f>[6]Results!E613</f>
         <v>21.1</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <f>[6]Results!F613</f>
         <v>5.1200649851163194</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <f>[6]Results!G613</f>
         <v>70.3</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="7">
         <f>[6]Results!H613</f>
         <v>4.4664872634416275</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="7">
         <f>[6]Results!I613</f>
         <v>145.19999999999999</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <f>[6]Results!J613</f>
         <v>3.7252222118341018</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="7">
         <f>[6]Results!K613</f>
         <v>519.4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="str">
+      <c r="A15" s="7" t="str">
         <f>[6]Results!A614</f>
         <v>от 42 до 51</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <f>[6]Results!B614</f>
         <v>19.833489176183406</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <f>[6]Results!C614</f>
         <v>10.3</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="7">
         <f>[6]Results!D614</f>
         <v>16.942576188243859</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <f>[6]Results!E614</f>
         <v>27.2</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <f>[6]Results!F614</f>
         <v>15.128877050586343</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <f>[6]Results!G614</f>
         <v>89.7</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="7">
         <f>[6]Results!H614</f>
         <v>13.357589604913908</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="7">
         <f>[6]Results!I614</f>
         <v>182.8</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="7">
         <f>[6]Results!J614</f>
         <v>11.923373264409294</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="7">
         <f>[6]Results!K614</f>
         <v>615.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="str">
+      <c r="A16" s="7" t="str">
         <f>[6]Results!A615</f>
         <v>от 52 до 76</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <f>[6]Results!B615</f>
         <v>47.544626374318007</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <f>[6]Results!C615</f>
         <v>13.3</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="7">
         <f>[6]Results!D615</f>
         <v>42.12494981433116</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <f>[6]Results!E615</f>
         <v>34.9</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="7">
         <f>[6]Results!F615</f>
         <v>37.228315926367145</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <f>[6]Results!G615</f>
         <v>112.2</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="7">
         <f>[6]Results!H615</f>
         <v>34.891981992068921</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="7">
         <f>[6]Results!I615</f>
         <v>223.2</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <f>[6]Results!J615</f>
         <v>31.939226480988008</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="7">
         <f>[6]Results!K615</f>
         <v>748.4</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="str">
+      <c r="A17" s="7" t="str">
         <f>[6]Results!A616</f>
         <v>от 99 до 105</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="7">
         <f>[6]Results!B616</f>
         <v>24.96437722422538</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="7">
         <f>[6]Results!C616</f>
         <v>18.2</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="7">
         <f>[6]Results!D616</f>
         <v>22.352686982528393</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="7">
         <f>[6]Results!E616</f>
         <v>47</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="7">
         <f>[6]Results!F616</f>
         <v>20.147818447861443</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="7">
         <f>[6]Results!G616</f>
         <v>145.30000000000001</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="7">
         <f>[6]Results!H616</f>
         <v>19.268307379085442</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="7">
         <f>[6]Results!I616</f>
         <v>283.7</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="7">
         <f>[6]Results!J616</f>
         <v>18.07909659176936</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="7">
         <f>[6]Results!K616</f>
         <v>899.4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
+      <c r="A18" s="7" t="str">
         <f>[6]Results!A617</f>
         <v>от 107 до 150</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="7">
         <f>[6]Results!B617</f>
         <v>40.723724212766193</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="7">
         <f>[6]Results!C617</f>
         <v>23.9</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="7">
         <f>[6]Results!D617</f>
         <v>37.069505743802075</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="7">
         <f>[6]Results!E617</f>
         <v>59.9</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="7">
         <f>[6]Results!F617</f>
         <v>33.871414859212635</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="7">
         <f>[6]Results!G617</f>
         <v>182.3</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="7">
         <f>[6]Results!H617</f>
         <v>32.277199062695807</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="7">
         <f>[6]Results!I617</f>
         <v>335.6</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="7">
         <f>[6]Results!J617</f>
         <v>30.448013135606168</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="7">
         <f>[6]Results!K617</f>
         <v>1034.9000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="7" t="str">
         <f>[6]Results!A618</f>
         <v>от 152 до 200</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="7">
         <f>[6]Results!B618</f>
         <v>46.908826370589161</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="7">
         <f>[6]Results!C618</f>
         <v>36</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="7">
         <f>[6]Results!D618</f>
         <v>43.470873306554225</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="7">
         <f>[6]Results!E618</f>
         <v>85</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="7">
         <f>[6]Results!F618</f>
         <v>39.790345848057456</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="7">
         <f>[6]Results!G618</f>
         <v>247.88888888888889</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="7">
         <f>[6]Results!H618</f>
         <v>38.152930901299612</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="7">
         <f>[6]Results!I618</f>
         <v>454</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="7">
         <f>[6]Results!J618</f>
         <v>35.620822308365319</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="7">
         <f>[6]Results!K618</f>
         <v>1344.4444444444443</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="str">
+      <c r="A20" s="7" t="str">
         <f>[6]Results!A619</f>
         <v>от 225 до 299</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="7">
         <f>[6]Results!B619</f>
         <v>57.551538514103129</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="7">
         <f>[6]Results!C619</f>
         <v>52.571428571428569</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="7">
         <f>[6]Results!D619</f>
         <v>53.587946800988938</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="7">
         <f>[6]Results!E619</f>
         <v>122.14285714285714</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="7">
         <f>[6]Results!F619</f>
         <v>50.100021308604695</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="7">
         <f>[6]Results!G619</f>
         <v>340.14285714285717</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="7">
         <f>[6]Results!H619</f>
         <v>48.025640621755706</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="7">
         <f>[6]Results!I619</f>
         <v>607.28571428571433</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="7">
         <f>[6]Results!J619</f>
         <v>45.637807729864868</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="7">
         <f>[6]Results!K619</f>
         <v>1756.8571428571429</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
+      <c r="A21" s="7" t="str">
         <f>[6]Results!A620</f>
         <v>Итог</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="7">
         <f>[6]Results!B620</f>
         <v>35.148686314770586</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="7">
         <f>[6]Results!C620</f>
         <v>23.181632653061222</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="7">
         <f>[6]Results!D620</f>
         <v>31.781166766801338</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="7">
         <f>[6]Results!E620</f>
         <v>56.748979591836736</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="7">
         <f>[6]Results!F620</f>
         <v>28.769551203686579</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="7">
         <f>[6]Results!G620</f>
         <v>169.69024943310657</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="7">
         <f>[6]Results!H620</f>
         <v>27.205733832180147</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="7">
         <f>[6]Results!I620</f>
         <v>318.82653061224488</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="7">
         <f>[6]Results!J620</f>
         <v>25.33908024611959</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="7">
         <f>[6]Results!K620</f>
         <v>988.40022675736964</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="B26" s="11">
         <f>AVERAGE(B3,D3)</f>
         <v>2.8711914119189865</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="11">
         <f>AVERAGE(H14,J14)</f>
         <v>4.0958547376378647</v>
       </c>
-      <c r="D26" s="23">
-        <f>B26-C26</f>
-        <v>-1.2246633257188781</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="11">
+        <f>B26/C26</f>
+        <v>0.70099932635180362</v>
+      </c>
+      <c r="E26" s="11">
         <f>AVERAGE(C3,E3)</f>
         <v>3.2299999999999995</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="11">
         <f>AVERAGE(I14,K14)</f>
         <v>332.29999999999995</v>
       </c>
-      <c r="G26" s="23">
-        <f>E26-F26</f>
-        <v>-329.06999999999994</v>
-      </c>
-      <c r="H26" s="25">
+      <c r="G26" s="11">
+        <f>E26/F26</f>
+        <v>9.7201324104724644E-3</v>
+      </c>
+      <c r="H26" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="23">
+      <c r="A27" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="11">
         <f t="shared" ref="B27:B32" si="0">AVERAGE(B4,D4)</f>
         <v>7.2209076750516044</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="11">
         <f t="shared" ref="C27:C32" si="1">AVERAGE(H15,J15)</f>
         <v>12.640481434661602</v>
       </c>
-      <c r="D27" s="23">
-        <f t="shared" ref="D27:D33" si="2">B27-C27</f>
-        <v>-5.4195737596099978</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="11">
+        <f t="shared" ref="D27:D33" si="2">B27/C27</f>
+        <v>0.57125258340644169</v>
+      </c>
+      <c r="E27" s="11">
         <f t="shared" ref="E27:E32" si="3">AVERAGE(C4,E4)</f>
         <v>20.55</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="11">
         <f t="shared" ref="F27:F32" si="4">AVERAGE(I15,K15)</f>
         <v>399.1</v>
       </c>
-      <c r="G27" s="23">
-        <f t="shared" ref="G27:G33" si="5">E27-F27</f>
-        <v>-378.55</v>
-      </c>
-      <c r="H27" s="25">
+      <c r="G27" s="11">
+        <f t="shared" ref="G27:G33" si="5">E27/F27</f>
+        <v>5.1490854422450515E-2</v>
+      </c>
+      <c r="H27" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="23">
+      <c r="A28" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="11">
         <f t="shared" si="0"/>
         <v>14.526554745614259</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="11">
         <f t="shared" si="1"/>
         <v>33.415604236528466</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="11">
         <f t="shared" si="2"/>
-        <v>-18.889049490914207</v>
-      </c>
-      <c r="E28" s="23">
+        <v>0.43472368905226827</v>
+      </c>
+      <c r="E28" s="11">
         <f t="shared" si="3"/>
         <v>72.884999999999991</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="11">
         <f t="shared" si="4"/>
         <v>485.79999999999995</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
-        <v>-412.91499999999996</v>
-      </c>
-      <c r="H28" s="25">
+        <v>0.15003087690407574</v>
+      </c>
+      <c r="H28" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="23">
+      <c r="A29" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="11">
         <f t="shared" si="0"/>
         <v>6.0311912544985971</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="11">
         <f t="shared" si="1"/>
         <v>18.6737019854274</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="11">
         <f t="shared" si="2"/>
-        <v>-12.642510730928802</v>
-      </c>
-      <c r="E29" s="23">
+        <v>0.32297780371590079</v>
+      </c>
+      <c r="E29" s="11">
         <f t="shared" si="3"/>
         <v>458.6</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="11">
         <f t="shared" si="4"/>
         <v>591.54999999999995</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="11">
         <f t="shared" si="5"/>
-        <v>-132.94999999999993</v>
-      </c>
-      <c r="H29" s="25">
+        <v>0.77525145803397866</v>
+      </c>
+      <c r="H29" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B30" s="23">
+      <c r="A30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="11">
         <f t="shared" si="0"/>
         <v>9.0970879694311932</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="11">
         <f t="shared" si="1"/>
         <v>31.362606099150987</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="11">
         <f t="shared" si="2"/>
-        <v>-22.265518129719794</v>
-      </c>
-      <c r="E30" s="23">
+        <v>0.29006160842218592</v>
+      </c>
+      <c r="E30" s="11">
         <f t="shared" si="3"/>
         <v>1634.73</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="11">
         <f t="shared" si="4"/>
         <v>685.25</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="11">
         <f t="shared" si="5"/>
-        <v>949.48</v>
-      </c>
-      <c r="H30" s="25">
+        <v>2.3855964976286028</v>
+      </c>
+      <c r="H30" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="23">
+      <c r="A31" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="11">
         <f t="shared" si="0"/>
         <v>10.141162728956502</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="11">
         <f t="shared" si="1"/>
         <v>36.886876604832466</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="11">
         <f t="shared" si="2"/>
-        <v>-26.745713875875964</v>
-      </c>
-      <c r="E31" s="23">
+        <v>0.27492603501235263</v>
+      </c>
+      <c r="E31" s="11">
         <f t="shared" si="3"/>
         <v>4233.7888888888892</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="11">
         <f t="shared" si="4"/>
         <v>899.22222222222217</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="11">
         <f t="shared" si="5"/>
-        <v>3334.5666666666671</v>
-      </c>
-      <c r="H31" s="25">
+        <v>4.7082787594217228</v>
+      </c>
+      <c r="H31" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="23">
+      <c r="A32" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="11">
         <f t="shared" si="0"/>
         <v>11.356763182782752</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="11">
         <f t="shared" si="1"/>
         <v>46.831724175810287</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="11">
         <f t="shared" si="2"/>
-        <v>-35.474960993027537</v>
-      </c>
-      <c r="E32" s="23">
+        <v>0.24250149621116862</v>
+      </c>
+      <c r="E32" s="11">
         <f t="shared" si="3"/>
         <v>20700.871428571427</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="11">
         <f t="shared" si="4"/>
         <v>1182.0714285714287</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="11">
         <f t="shared" si="5"/>
-        <v>19518.8</v>
-      </c>
-      <c r="H32" s="25">
+        <v>17.512369327451808</v>
+      </c>
+      <c r="H32" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="23">
-        <f>AVERAGE(B26:B32)</f>
-        <v>8.7492655668934134</v>
-      </c>
-      <c r="C33" s="23">
-        <f>AVERAGE(C26:C32)</f>
-        <v>26.272407039149869</v>
-      </c>
-      <c r="D33" s="23">
-        <f t="shared" si="2"/>
-        <v>-17.523141472256455</v>
-      </c>
-      <c r="E33" s="23">
-        <f>AVERAGE(E26:E32)</f>
-        <v>3874.9507596371882</v>
-      </c>
-      <c r="F33" s="23">
-        <f>AVERAGE(F26:F32)</f>
-        <v>653.61337868480734</v>
-      </c>
-      <c r="G33" s="23">
-        <f t="shared" si="5"/>
-        <v>3221.337380952381</v>
-      </c>
-      <c r="H33" s="26">
+      <c r="A33" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="11">
+        <f>(B26*H26+B27*H27+B28*H28+B29*H29+B30*H30+B31*H31+B32*H32)/H33</f>
+        <v>8.6096535970490038</v>
+      </c>
+      <c r="C33" s="11">
+        <f>(C26*H26+C27*H27+C28*H28+C29*H29+C30*H30+C31*H31+C32*H32)/H33</f>
+        <v>25.177067327397385</v>
+      </c>
+      <c r="D33" s="11">
+        <f>(D26*H26+D27*H27+D28*H28+D29*H29+D30*H30+D31*H31+D32*H32)/H33</f>
+        <v>0.41472719542538422</v>
+      </c>
+      <c r="E33" s="11">
+        <f>(E26*H26+E27*H27+E28*H28+E29*H29+E30*H30+E31*H31+E32*H32)/H33</f>
+        <v>3104.6992424242417</v>
+      </c>
+      <c r="F33" s="11">
+        <f>(F26*H26+F27*H27+F28*H28+F29*H29+F30*H30+F31*H31+F32*H32)/H33</f>
+        <v>625.87121212121212</v>
+      </c>
+      <c r="G33" s="11">
+        <f>(G26*H26+G27*H27+G28*H28+G29*H29+G30*H30+G31*H31+G32*H32)/H33</f>
+        <v>3.0103332169841508</v>
+      </c>
+      <c r="H33" s="14">
         <f>SUM(H26:H32)</f>
         <v>66</v>
       </c>

--- a/Contest/results/Таблицы/сравнение.xlsx
+++ b/Contest/results/Таблицы/сравнение.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leysh\source\repos\dmji\unn-vkr\Contest\results\Таблицы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3389FCF-913E-4B31-AA3C-D9CDF88BB69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF2577-48EE-4C6F-BF38-4A5E9FF2840E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="16290" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="16290" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнение КЗН" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="224">
   <si>
     <t>Avg Error, %</t>
   </si>
@@ -982,21 +982,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1017,6 +1002,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2313,27 +2313,27 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2524,19 +2524,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2957,25 +2957,25 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="17" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="15" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="9" t="s">
         <v>213</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="G25" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
@@ -3041,7 +3041,7 @@
         <v>2.2075097855030159</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" ref="D27:D33" si="2">B27/C27</f>
+        <f t="shared" ref="D27:D32" si="2">B27/C27</f>
         <v>1.7739661001109193</v>
       </c>
       <c r="E27" s="11">
@@ -3254,14 +3254,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A12:K12"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3271,27 +3271,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEDDA55-180D-4E66-A65B-197473BECEB7}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:G33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3482,19 +3485,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3911,25 +3914,25 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="17" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="15" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="9" t="s">
         <v>213</v>
       </c>
@@ -3948,11 +3951,12 @@
       <c r="G25" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>215</v>
+      <c r="A26" s="7" t="str">
+        <f t="shared" ref="A26:A32" si="0">A14</f>
+        <v>от 17 до 39</v>
       </c>
       <c r="B26" s="11">
         <f>AVERAGE(B3,D3)</f>
@@ -3983,31 +3987,32 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>216</v>
+      <c r="A27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>от 42 до 51</v>
       </c>
       <c r="B27" s="11">
-        <f t="shared" ref="B27:B32" si="0">AVERAGE(B4,D4)</f>
+        <f t="shared" ref="B27:B32" si="1">AVERAGE(B4,D4)</f>
         <v>7.2209076750516044</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" ref="C27:C32" si="1">AVERAGE(H15,J15)</f>
+        <f t="shared" ref="C27:C32" si="2">AVERAGE(H15,J15)</f>
         <v>12.640481434661602</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" ref="D27:D33" si="2">B27/C27</f>
+        <f t="shared" ref="D27:D32" si="3">B27/C27</f>
         <v>0.57125258340644169</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" ref="E27:E32" si="3">AVERAGE(C4,E4)</f>
+        <f t="shared" ref="E27:E32" si="4">AVERAGE(C4,E4)</f>
         <v>20.55</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" ref="F27:F32" si="4">AVERAGE(I15,K15)</f>
+        <f t="shared" ref="F27:F32" si="5">AVERAGE(I15,K15)</f>
         <v>399.1</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" ref="G27:G33" si="5">E27/F27</f>
+        <f t="shared" ref="G27:G32" si="6">E27/F27</f>
         <v>5.1490854422450515E-2</v>
       </c>
       <c r="H27" s="13">
@@ -4015,31 +4020,32 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>217</v>
+      <c r="A28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>от 52 до 76</v>
       </c>
       <c r="B28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.526554745614259</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.415604236528466</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43472368905226827</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72.884999999999991</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>485.79999999999995</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15003087690407574</v>
       </c>
       <c r="H28" s="13">
@@ -4047,31 +4053,32 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>218</v>
+      <c r="A29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>от 99 до 105</v>
       </c>
       <c r="B29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0311912544985971</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.6737019854274</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32297780371590079</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>458.6</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>591.54999999999995</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77525145803397866</v>
       </c>
       <c r="H29" s="13">
@@ -4079,31 +4086,32 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>219</v>
+      <c r="A30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>от 107 до 150</v>
       </c>
       <c r="B30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0970879694311932</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.362606099150987</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29006160842218592</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1634.73</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>685.25</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3855964976286028</v>
       </c>
       <c r="H30" s="13">
@@ -4111,31 +4119,32 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>220</v>
+      <c r="A31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>от 152 до 200</v>
       </c>
       <c r="B31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.141162728956502</v>
       </c>
       <c r="C31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.886876604832466</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27492603501235263</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4233.7888888888892</v>
       </c>
       <c r="F31" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>899.22222222222217</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7082787594217228</v>
       </c>
       <c r="H31" s="13">
@@ -4143,31 +4152,32 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>221</v>
+      <c r="A32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>от 225 до 299</v>
       </c>
       <c r="B32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.356763182782752</v>
       </c>
       <c r="C32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.831724175810287</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24250149621116862</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20700.871428571427</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1182.0714285714287</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.512369327451808</v>
       </c>
       <c r="H32" s="13">
